--- a/uploads/excel/REGISTRO.xlsx
+++ b/uploads/excel/REGISTRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ecomas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8EFA7AE-7491-4414-B62C-A9E8FCB4DAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75ED294-4739-4512-A55C-E9444D3F79F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F6573AB3-9CCC-48F7-8CFC-E6E2A8329F39}"/>
+    <workbookView xWindow="465" yWindow="285" windowWidth="19410" windowHeight="11385" xr2:uid="{F6573AB3-9CCC-48F7-8CFC-E6E2A8329F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340E879B-F791-40F3-B72D-518E94EFE7F9}">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1015,7 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="89.28515625" customWidth="1"/>
+    <col min="4" max="4" width="100.140625" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
